--- a/documents/example_docs_uni/1 курс.xlsx
+++ b/documents/example_docs_uni/1 курс.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B77AE1D-C391-964F-9DF7-D0946BA4A0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEF8E96-900C-BB4C-B515-33F9ED366CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>наименование</t>
   </si>
@@ -52,48 +52,6 @@
     <t>номер группы/инициалы</t>
   </si>
   <si>
-    <t>БИ</t>
-  </si>
-  <si>
-    <t>ПМ</t>
-  </si>
-  <si>
-    <t>ПИ</t>
-  </si>
-  <si>
-    <t>ФИИТ</t>
-  </si>
-  <si>
-    <t>ИБ</t>
-  </si>
-  <si>
-    <t>ПМИ</t>
-  </si>
-  <si>
-    <t>ИСТ</t>
-  </si>
-  <si>
-    <t>бизнес-информатика</t>
-  </si>
-  <si>
-    <t>прикладная математика</t>
-  </si>
-  <si>
-    <t>прикладная информатика</t>
-  </si>
-  <si>
-    <t>фундаментальная информатика и информационные технологии</t>
-  </si>
-  <si>
-    <t>ифнормационная безопасность</t>
-  </si>
-  <si>
-    <t>прикладная математика и информатика</t>
-  </si>
-  <si>
-    <t>информационные системы и технологии</t>
-  </si>
-  <si>
     <t>09-301</t>
   </si>
   <si>
@@ -146,6 +104,27 @@
   </si>
   <si>
     <t>09-363</t>
+  </si>
+  <si>
+    <t>38.03.05 БИ 2023</t>
+  </si>
+  <si>
+    <t>01.03.02 ПМИ 2023</t>
+  </si>
+  <si>
+    <t>09.03.03 ПИ 2023</t>
+  </si>
+  <si>
+    <t>02.03.02 ФИИТ 2023</t>
+  </si>
+  <si>
+    <t>10.03.01 ИБ 2023</t>
+  </si>
+  <si>
+    <t>01.03.04 ПМ 2023</t>
+  </si>
+  <si>
+    <t>09.03.02 ИСТ 2023</t>
   </si>
 </sst>
 </file>
@@ -499,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E4EB94-B1C0-BE47-A9AD-9B963093183B}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,7 +491,7 @@
     <col min="8" max="8" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,150 +502,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
       </c>
       <c r="C7">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>28</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -675,9 +612,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -686,45 +623,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>27</v>
@@ -732,10 +669,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -743,10 +680,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>29</v>
@@ -754,10 +691,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -765,10 +702,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>28</v>
@@ -776,10 +713,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>30</v>
